--- a/лабиСтатистичне_моделювання.xlsx
+++ b/лабиСтатистичне_моделювання.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trock\Desktop\4 курс\LR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\trock\Desktop\SMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD056C5-C402-4682-8BF5-9F0A3B11AB74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E7678EA-881D-4F0E-8C92-7EE6A61173AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" activeTab="2" xr2:uid="{C6454709-9D82-4E43-897D-8CDF4628B8E6}"/>
   </bookViews>
@@ -347,37 +347,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -948,37 +943,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ru-RU"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
         <c:manualLayout>
@@ -3212,7 +3177,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3604,7 +3569,7 @@
         <v>35</v>
       </c>
       <c r="C11">
-        <f t="shared" ref="C11:F11" si="5">SUM(C2:C10)</f>
+        <f t="shared" ref="C11:G11" si="5">SUM(C2:C10)</f>
         <v>494</v>
       </c>
       <c r="D11">
@@ -3618,6 +3583,10 @@
       <c r="F11">
         <f t="shared" si="5"/>
         <v>27272</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="5"/>
+        <v>493.99999999999989</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.45">
@@ -3654,8 +3623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D01BFC95-FB62-454A-8DFD-E6026B23C1F3}">
   <dimension ref="A1:M28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="69" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+    <sheetView tabSelected="1" zoomScale="69" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3771,43 +3740,43 @@
         <v>1100</v>
       </c>
       <c r="D3" s="7">
-        <f t="shared" ref="D3:D11" si="0">POWER(B3,2)</f>
+        <f t="shared" ref="D3:D10" si="0">POWER(B3,2)</f>
         <v>0.51839999999999997</v>
       </c>
       <c r="E3" s="7">
-        <f t="shared" ref="E3:E11" si="1">POWER(B3,3)</f>
+        <f t="shared" ref="E3:E10" si="1">POWER(B3,3)</f>
         <v>0.37324799999999997</v>
       </c>
       <c r="F3" s="7">
-        <f t="shared" ref="F3:F11" si="2">POWER(B3,4)</f>
+        <f t="shared" ref="F3:F10" si="2">POWER(B3,4)</f>
         <v>0.26873855999999996</v>
       </c>
       <c r="G3" s="7">
-        <f t="shared" ref="G3:G11" si="3">B3*C3</f>
+        <f t="shared" ref="G3:G10" si="3">B3*C3</f>
         <v>792</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H11" si="4">D3*C3</f>
+        <f t="shared" ref="H3:H10" si="4">D3*C3</f>
         <v>570.24</v>
       </c>
       <c r="I3" s="7">
-        <f t="shared" ref="I3:I11" si="5">C3-$C$13</f>
+        <f t="shared" ref="I3:I10" si="5">C3-$C$13</f>
         <v>-536</v>
       </c>
       <c r="J3" s="7">
-        <f t="shared" ref="J3:J11" si="6">POWER(C3-$C$13,2)</f>
+        <f t="shared" ref="J3:J10" si="6">POWER(C3-$C$13,2)</f>
         <v>287296</v>
       </c>
       <c r="K3" s="7">
-        <f t="shared" ref="K3:K11" si="7">$E$20+B3*$E$21+B3*B3*$E$22</f>
+        <f t="shared" ref="K3:K10" si="7">$E$20+B3*$E$21+B3*B3*$E$22</f>
         <v>1113.1039521692201</v>
       </c>
       <c r="L3" s="7">
-        <f t="shared" ref="L3:L11" si="8">K3-$C$13</f>
+        <f t="shared" ref="L3:L10" si="8">K3-$C$13</f>
         <v>-522.89604783077993</v>
       </c>
       <c r="M3" s="7">
-        <f t="shared" ref="M3:M11" si="9">POWER(K3-$C$13,2)</f>
+        <f t="shared" ref="M3:M10" si="9">POWER(K3-$C$13,2)</f>
         <v>273420.27683704928</v>
       </c>
     </row>
@@ -4256,376 +4225,243 @@
       <c r="L13" s="7"/>
       <c r="M13" s="7"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A14" s="9"/>
-      <c r="B14" s="9"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
-    </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="9"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A16" s="12">
+      <c r="A16" s="9">
         <f>$C$12</f>
         <v>14724</v>
       </c>
-      <c r="B16" s="9">
+      <c r="B16">
         <f>$A$10</f>
         <v>9</v>
       </c>
-      <c r="C16" s="12">
+      <c r="C16" s="9">
         <f>$B$12</f>
         <v>10.010000000000002</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="9">
         <f>$D$12</f>
         <v>12.425300000000002</v>
       </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="12">
+      <c r="F16" s="9">
         <f>$C$12</f>
         <v>14724</v>
       </c>
-      <c r="G16" s="12">
+      <c r="G16" s="9">
         <f>$B$12</f>
         <v>10.010000000000002</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="9">
         <f>$D$12</f>
         <v>12.425300000000002</v>
       </c>
-      <c r="I16" s="9"/>
-      <c r="J16" s="9">
+      <c r="J16">
         <f>$A$10</f>
         <v>9</v>
       </c>
-      <c r="K16" s="12">
+      <c r="K16" s="9">
         <f>$C$12</f>
         <v>14724</v>
       </c>
-      <c r="L16" s="12">
+      <c r="L16" s="9">
         <f>$D$12</f>
         <v>12.425300000000002</v>
       </c>
-      <c r="M16" s="9"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A17" s="12">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A17" s="9">
         <f>$G$12</f>
         <v>17871.77</v>
       </c>
-      <c r="B17" s="12">
+      <c r="B17" s="9">
         <f>$B$12</f>
         <v>10.010000000000002</v>
       </c>
-      <c r="C17" s="12">
+      <c r="C17" s="9">
         <f>$D$12</f>
         <v>12.425300000000002</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="9">
         <f>$E$12</f>
         <v>16.938029</v>
       </c>
-      <c r="E17" s="9"/>
-      <c r="F17" s="12">
+      <c r="F17" s="9">
         <f>$G$12</f>
         <v>17871.77</v>
       </c>
-      <c r="G17" s="12">
+      <c r="G17" s="9">
         <f>$D$12</f>
         <v>12.425300000000002</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="9">
         <f>$E$12</f>
         <v>16.938029</v>
       </c>
-      <c r="I17" s="9"/>
-      <c r="J17" s="12">
+      <c r="J17" s="9">
         <f>$B$12</f>
         <v>10.010000000000002</v>
       </c>
-      <c r="K17" s="12">
+      <c r="K17" s="9">
         <f>$G$12</f>
         <v>17871.77</v>
       </c>
-      <c r="L17" s="12">
+      <c r="L17" s="9">
         <f>$E$12</f>
         <v>16.938029</v>
       </c>
-      <c r="M17" s="9"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A18" s="12">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A18" s="9">
         <f>$H$12</f>
         <v>23824.349900000005</v>
       </c>
-      <c r="B18" s="12">
+      <c r="B18" s="9">
         <f>$D$12</f>
         <v>12.425300000000002</v>
       </c>
-      <c r="C18" s="12">
+      <c r="C18" s="9">
         <f>$E$12</f>
         <v>16.938029</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="9">
         <f>$F$12</f>
         <v>24.819190610000007</v>
       </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="12">
+      <c r="F18" s="9">
         <f>$H$12</f>
         <v>23824.349900000005</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="9">
         <f>$E$12</f>
         <v>16.938029</v>
       </c>
-      <c r="H18" s="12">
+      <c r="H18" s="9">
         <f>$F$12</f>
         <v>24.819190610000007</v>
       </c>
-      <c r="I18" s="9"/>
-      <c r="J18" s="12">
+      <c r="J18" s="9">
         <f>$D$12</f>
         <v>12.425300000000002</v>
       </c>
-      <c r="K18" s="12">
+      <c r="K18" s="9">
         <f>$H$12</f>
         <v>23824.349900000005</v>
       </c>
-      <c r="L18" s="12">
+      <c r="L18" s="9">
         <f>$F$12</f>
         <v>24.819190610000007</v>
       </c>
-      <c r="M18" s="10"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-      <c r="J19" s="9"/>
-      <c r="K19" s="9"/>
-      <c r="L19" s="9"/>
-      <c r="M19" s="10"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A20" s="9" t="s">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="9">
+      <c r="B20">
         <f>MDETERM(B16:D18)</f>
         <v>1.6090080596641012</v>
       </c>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9" t="s">
+      <c r="D20" t="s">
         <v>38</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20">
         <f>B21/B20</f>
         <v>-714.69362941446605</v>
       </c>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-      <c r="J20" s="9"/>
-      <c r="K20" s="9"/>
-      <c r="L20" s="9"/>
-      <c r="M20" s="10"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A21" s="9" t="s">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
         <v>39</v>
       </c>
-      <c r="B21" s="12">
+      <c r="B21" s="9">
         <f>MDETERM(F16:H18)</f>
         <v>-1149.9478099184641</v>
       </c>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9" t="s">
+      <c r="D21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21">
         <f>B22/B20</f>
         <v>3125.7484879169415</v>
       </c>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-      <c r="J21" s="9"/>
-      <c r="K21" s="9"/>
-      <c r="L21" s="9"/>
-      <c r="M21" s="10"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A22" s="9" t="s">
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
         <v>41</v>
       </c>
-      <c r="B22" s="9">
+      <c r="B22">
         <f>MDETERM(J16:L18)</f>
         <v>5029.3545095412364</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
+      <c r="D22" t="s">
         <v>42</v>
       </c>
-      <c r="E22" s="9">
+      <c r="E22">
         <f>B23/B20</f>
         <v>-815.47324405191284</v>
       </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="9"/>
-      <c r="K22" s="9"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="10"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A23" s="9" t="s">
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="9">
+      <c r="B23">
         <f>MDETERM(A16:C18)</f>
         <v>-1312.1030221199583</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="9"/>
-      <c r="K23" s="9"/>
-      <c r="L23" s="9"/>
-      <c r="M23" s="10"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A24" s="11" t="s">
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A24" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-      <c r="J24" s="9"/>
-      <c r="K24" s="9"/>
-      <c r="L24" s="9"/>
-      <c r="M24" s="10"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A25" s="9" t="s">
+      <c r="B24" s="10"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
         <v>45</v>
       </c>
-      <c r="B25" s="9">
+      <c r="B25">
         <f>SQRT(M12/J12)</f>
         <v>0.98829366545865538</v>
       </c>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-      <c r="J25" s="9"/>
-      <c r="K25" s="9"/>
-      <c r="L25" s="9"/>
-      <c r="M25" s="10"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A26" s="13" t="s">
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A26" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="B26" s="13"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="9"/>
-      <c r="L26" s="9"/>
-      <c r="M26" s="10"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A27" s="9" t="s">
+      <c r="B26" s="11"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
         <v>47</v>
       </c>
-      <c r="B27" s="14">
+      <c r="B27" s="1">
         <f>(1-B25*B25)/SQRT(A10-1)</f>
         <v>8.2291781925914204E-3</v>
       </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-      <c r="J27" s="9"/>
-      <c r="K27" s="9"/>
-      <c r="L27" s="9"/>
-      <c r="M27" s="10"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.45">
-      <c r="A28" s="9" t="s">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
         <v>48</v>
       </c>
-      <c r="B28" s="9">
+      <c r="B28">
         <f>B25/B27</f>
         <v>120.09627721373177</v>
       </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-      <c r="J28" s="9"/>
-      <c r="K28" s="9"/>
-      <c r="L28" s="9"/>
-      <c r="M28" s="10"/>
     </row>
   </sheetData>
   <mergeCells count="3">
